--- a/NoteData.xlsx
+++ b/NoteData.xlsx
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -208,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -218,6 +219,1583 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChordData!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3rd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChordData!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChordData!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="167148928"/>
+        <c:axId val="167147392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167148928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167147392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="167147392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167148928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChordData!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChordData!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="119803904"/>
+        <c:axId val="70362624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119803904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70362624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70362624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119803904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#R-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChordData!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChordData!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChordData!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChordData!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>ChordData!$A$2:$D$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>D#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>G</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>G#</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A#</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>E</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>G</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>minor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChordData!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="128938752"/>
+        <c:axId val="92230400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128938752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92230400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92230400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128938752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,18 +2086,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -553,7 +2136,7 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
@@ -583,17 +2166,17 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <f>MOD((F2-E2),8)</f>
+        <f t="shared" ref="H2:I8" si="0">MOD((F2-E2),8)</f>
         <v>2</v>
       </c>
       <c r="I2">
-        <f>MOD((G2-F2),8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
       <c r="L2">
@@ -624,21 +2207,21 @@
         <v>6.5</v>
       </c>
       <c r="H3">
-        <f>MOD((F3-E3),8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I3">
-        <f>MOD((G3-F3),8)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="0">(10*J3)+K3</f>
+        <f t="shared" ref="L3:L8" si="1">(10*J3)+K3</f>
         <v>10</v>
       </c>
     </row>
@@ -665,21 +2248,21 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f>MOD((F4-E4),8)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I4">
-        <f>MOD((G4-F4),8)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -706,21 +2289,21 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>MOD((F5-E5),8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I5">
-        <f>MOD((G5-F5),8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -747,21 +2330,21 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f>MOD((F6-E6),8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I6">
-        <f>MOD((G6-F6),8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -788,21 +2371,21 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <f>MOD((F7-E7),8)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I7">
-        <f>MOD((G7-F7),8)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -829,21 +2412,21 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <f>MOD((F8-E8),8)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I8">
-        <f>MOD((G8-F8),8)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -905,6 +2488,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
